--- a/21130579-NguyenPhamQuocTri/21130579-NguyenPhamQuocTri.xlsx
+++ b/21130579-NguyenPhamQuocTri/21130579-NguyenPhamQuocTri.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850" tabRatio="821"/>
+    <workbookView windowWidth="28800" windowHeight="11850" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Module 03'!$A$8:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Module 13'!$A$8:$H$14</definedName>
     <definedName name="_Toc301930468" localSheetId="2">TestDesign!#REF!</definedName>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="197">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -636,6 +636,9 @@
     <t>1. Video reloads at selected resolution.
 2. Quality indicator updates correctly.
 3. Playback continues smoothly.</t>
+  </si>
+  <si>
+    <t>15/11/2025</t>
   </si>
   <si>
     <t>HDToday provides multiple server qualities.</t>
@@ -899,7 +902,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1238,25 +1241,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -2193,12 +2189,12 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2401,9 +2397,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3071,36 +3064,36 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="119" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="120" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="119" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="119" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="119" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="119" customWidth="1"/>
-    <col min="7" max="7" width="31" style="119" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="119"/>
+    <col min="1" max="1" width="2.25" style="118" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="119" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="118" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="118" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="118" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="118" customWidth="1"/>
+    <col min="7" max="7" width="31" style="118" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="118"/>
   </cols>
   <sheetData>
-    <row r="2" s="116" customFormat="1" ht="75.75" customHeight="1" spans="1:7">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122" t="s">
+    <row r="2" s="115" customFormat="1" ht="75.75" customHeight="1" spans="1:7">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:7">
@@ -3115,137 +3108,137 @@
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="127"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:7">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="127"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:7">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="129" t="str">
+      <c r="C6" s="128" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="130"/>
+      <c r="G6" s="129"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:7">
       <c r="B7" s="6"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="130"/>
+      <c r="G7" s="129"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="14"/>
-      <c r="C8" s="131"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
+      <c r="C8" s="130"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="131" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="117" customFormat="1" spans="2:7">
-      <c r="B11" s="133" t="s">
+    <row r="11" s="116" customFormat="1" spans="2:7">
+      <c r="B11" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="134" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="118" customFormat="1" ht="25.5" spans="2:7">
-      <c r="B12" s="136" t="s">
+    <row r="12" s="117" customFormat="1" ht="25.5" spans="2:7">
+      <c r="B12" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="140" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="118" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B13" s="141"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="142"/>
-    </row>
-    <row r="14" s="118" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B14" s="141"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="142"/>
-    </row>
-    <row r="15" s="118" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B15" s="141"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="142"/>
-    </row>
-    <row r="16" s="118" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B16" s="141"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="142"/>
-    </row>
-    <row r="17" s="118" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
-      <c r="B17" s="141"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="142"/>
-    </row>
-    <row r="18" s="118" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="146"/>
+    <row r="13" s="117" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B13" s="140"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="141"/>
+    </row>
+    <row r="14" s="117" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B14" s="140"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="141"/>
+    </row>
+    <row r="15" s="117" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B15" s="140"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="141"/>
+    </row>
+    <row r="16" s="117" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B16" s="140"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="141"/>
+    </row>
+    <row r="17" s="117" customFormat="1" ht="21.75" customHeight="1" spans="2:7">
+      <c r="B17" s="140"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="141"/>
+    </row>
+    <row r="18" s="117" customFormat="1" ht="19.5" customHeight="1" spans="2:7">
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3276,31 +3269,31 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="89" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="90" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="90" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="88" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="89" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="89" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="2:5">
-      <c r="B1" s="91"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="90"/>
+      <c r="D1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="93"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="2:5">
-      <c r="B2" s="91"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="90"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3308,10 +3301,10 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="7" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
@@ -3319,150 +3312,150 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" s="86" customFormat="1" ht="84.75" customHeight="1" spans="2:6">
-      <c r="B5" s="96" t="s">
+    <row r="5" s="85" customFormat="1" ht="84.75" customHeight="1" spans="2:6">
+      <c r="B5" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="98"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" s="87" customFormat="1" spans="2:6">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-    </row>
-    <row r="8" s="88" customFormat="1" ht="21" customHeight="1" spans="2:6">
-      <c r="B8" s="101" t="s">
+    <row r="7" s="86" customFormat="1" spans="2:6">
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" s="87" customFormat="1" ht="21" customHeight="1" spans="2:6">
+      <c r="B8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="103" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="2:6">
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>1</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" ht="13.5" spans="2:6">
-      <c r="B10" s="105">
+      <c r="B10" s="104">
         <v>2</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="105"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="105"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="105"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="105"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="109"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="108"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="105"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="109"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="105"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="109"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="108"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="105"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="109"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="105"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="109"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="108"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="105"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="108"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="105"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="109"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="108"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3536,7 +3529,7 @@
       <c r="D2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="77"/>
@@ -3545,10 +3538,10 @@
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="77"/>
@@ -3557,10 +3550,10 @@
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="77"/>
@@ -3573,10 +3566,10 @@
       <c r="C5" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="77"/>
@@ -3585,10 +3578,10 @@
       <c r="A6" s="76"/>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="77"/>
@@ -3597,10 +3590,10 @@
       <c r="A7" s="76"/>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="77"/>
@@ -3613,10 +3606,10 @@
       <c r="C8" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="77"/>
@@ -3625,10 +3618,10 @@
       <c r="A9" s="76"/>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="77"/>
@@ -3637,10 +3630,10 @@
       <c r="A10" s="76"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="77"/>
@@ -3653,10 +3646,10 @@
       <c r="C11" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="77"/>
@@ -3665,10 +3658,10 @@
       <c r="A12" s="76"/>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="77"/>
@@ -3677,10 +3670,10 @@
       <c r="A13" s="76"/>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="77"/>
@@ -3693,10 +3686,10 @@
       <c r="C14" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="77"/>
@@ -3705,10 +3698,10 @@
       <c r="A15" s="76"/>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="77"/>
@@ -3717,10 +3710,10 @@
       <c r="A16" s="76"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="77"/>
@@ -3733,10 +3726,10 @@
       <c r="C17" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="77"/>
@@ -3745,10 +3738,10 @@
       <c r="A18" s="76"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="77"/>
@@ -3757,16 +3750,16 @@
       <c r="A19" s="76"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="77"/>
     </row>
-    <row r="20" ht="26.25" spans="1:6">
-      <c r="A20" s="80" t="s">
+    <row r="20" ht="13.5" spans="1:6">
+      <c r="A20" s="79" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="76" t="s">
@@ -3775,240 +3768,240 @@
       <c r="C20" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="77"/>
     </row>
     <row r="21" ht="13.5" spans="1:6">
-      <c r="A21" s="81"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="77"/>
     </row>
     <row r="22" ht="13.5" spans="1:6">
-      <c r="A22" s="81"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="77"/>
     </row>
     <row r="23" ht="13.5" spans="1:6">
-      <c r="A23" s="81"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="76"/>
       <c r="C23" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="77"/>
     </row>
     <row r="24" ht="13.5" spans="1:6">
-      <c r="A24" s="81"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="77"/>
     </row>
-    <row r="25" ht="26.25" spans="1:6">
-      <c r="A25" s="81"/>
-      <c r="B25" s="80" t="s">
+    <row r="25" ht="13.5" spans="1:6">
+      <c r="A25" s="80"/>
+      <c r="B25" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="77"/>
     </row>
     <row r="26" ht="13.5" spans="1:6">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="79" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="77"/>
     </row>
-    <row r="27" ht="26.25" spans="1:6">
-      <c r="A27" s="81"/>
-      <c r="B27" s="80" t="s">
+    <row r="27" ht="13.5" spans="1:6">
+      <c r="A27" s="80"/>
+      <c r="B27" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="77"/>
     </row>
     <row r="28" ht="13.5" spans="1:6">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="77"/>
     </row>
     <row r="29" ht="13.5" spans="1:6">
-      <c r="A29" s="81"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="79" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="77"/>
     </row>
     <row r="30" ht="13.5" spans="1:6">
-      <c r="A30" s="81"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="77"/>
     </row>
     <row r="31" ht="13.5" spans="1:6">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="79" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="77"/>
     </row>
     <row r="32" ht="13.5" spans="1:6">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="79" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="77"/>
     </row>
     <row r="33" ht="13.5" spans="1:6">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="80" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="77"/>
     </row>
     <row r="34" ht="13.5" spans="1:6">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="79" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="77"/>
     </row>
     <row r="35" ht="13.5" spans="1:6">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="79" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="77"/>
     </row>
     <row r="36" ht="26.25" spans="1:6">
-      <c r="A36" s="81"/>
-      <c r="B36" s="83" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="77" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="77"/>
     </row>
     <row r="37" ht="13.5" spans="1:6">
-      <c r="A37" s="82"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="84"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F36" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F37" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="24">
@@ -4052,7 +4045,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H2"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4260,122 +4253,134 @@
       <c r="F10" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="71"/>
     </row>
     <row r="11" ht="38.25" spans="1:9">
       <c r="A11" s="62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E11" s="63"/>
       <c r="F11" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H11" s="64"/>
       <c r="I11" s="71"/>
     </row>
     <row r="12" ht="51" spans="1:9">
       <c r="A12" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E12" s="63"/>
       <c r="F12" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H12" s="64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" s="71"/>
     </row>
     <row r="13" ht="38.25" spans="1:9">
       <c r="A13" s="62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H13" s="64"/>
       <c r="I13" s="71"/>
     </row>
     <row r="14" ht="38.25" spans="1:9">
       <c r="A14" s="62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14" s="63"/>
       <c r="F14" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H14" s="64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I14" s="71"/>
     </row>
     <row r="15" ht="38.25" spans="1:9">
       <c r="A15" s="62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H15" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I15" s="71"/>
     </row>
@@ -4407,10 +4412,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4444,7 +4449,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4521,11 +4526,11 @@
     </row>
     <row r="6" s="37" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="51">
-        <f>COUNTIF(F9:F992,"Passed")</f>
+        <f>COUNTIF(F9:F987,"Passed")</f>
         <v>7</v>
       </c>
       <c r="B6" s="52">
-        <f>COUNTIF(F9:F992,"Failed")</f>
+        <f>COUNTIF(F9:F987,"Failed")</f>
         <v>0</v>
       </c>
       <c r="C6" s="52">
@@ -4533,15 +4538,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="52">
-        <f>COUNTIF(F$9:F$992,"Blocked")</f>
+        <f>COUNTIF(F$9:F$987,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E6" s="53">
-        <f>COUNTIF(F$9:F$992,"Skipped")</f>
+        <f>COUNTIF(F$9:F$987,"Skipped")</f>
         <v>0</v>
       </c>
       <c r="F6" s="54">
-        <f>COUNTA(A9:A992)</f>
+        <f>COUNTA(A9:A987)</f>
         <v>7</v>
       </c>
       <c r="G6" s="54"/>
@@ -4601,155 +4606,169 @@
     </row>
     <row r="10" ht="38.25" spans="1:9">
       <c r="A10" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="64"/>
       <c r="I10" s="71"/>
     </row>
     <row r="11" ht="38.25" spans="1:9">
       <c r="A11" s="62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H11" s="64"/>
       <c r="I11" s="71"/>
     </row>
     <row r="12" ht="38.25" spans="1:9">
       <c r="A12" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H12" s="64"/>
       <c r="I12" s="71"/>
     </row>
     <row r="13" ht="38.25" spans="1:9">
       <c r="A13" s="62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H13" s="64"/>
       <c r="I13" s="71"/>
     </row>
     <row r="14" ht="38.25" spans="1:9">
       <c r="A14" s="62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H14" s="64"/>
       <c r="I14" s="71"/>
     </row>
     <row r="15" ht="38.25" spans="1:8">
       <c r="A15" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>175</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>174</v>
       </c>
       <c r="F15" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H15" s="64"/>
     </row>
     <row r="16" ht="38.25" spans="1:8">
       <c r="A16" s="62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>126</v>
+      </c>
       <c r="H16" s="64"/>
     </row>
   </sheetData>
@@ -4761,7 +4780,7 @@
     <mergeCell ref="F6:H6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F141">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F16 F17:F136">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -4798,7 +4817,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4822,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -4862,16 +4881,16 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4903,13 +4922,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>111</v>
@@ -4921,7 +4940,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5007,7 +5026,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D13" s="28">
         <f>SUM(D8:D12)</f>
@@ -5044,27 +5063,27 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E15" s="34">
         <f>(D13+E13)*100/(I13-H13-G13)</f>
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" s="34">
         <f>D13*100/(D13+E13)</f>
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="35"/>
     </row>
